--- a/Teams/Wolves_stats.xlsx
+++ b/Teams/Wolves_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9339,7 +9339,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>31-250</t>
+          <t>31-251</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10518,7 +10518,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-328</t>
+          <t>22-329</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-306</t>
+          <t>18-307</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10695,7 +10695,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-001</t>
+          <t>19-002</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16-312</t>
+          <t>16-313</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23-212</t>
+          <t>23-213</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12618,7 +12618,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13442,7 +13442,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -14417,7 +14417,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15233,7 +15233,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -15437,7 +15437,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15641,7 +15641,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16049,7 +16049,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -16355,7 +16355,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -16457,7 +16457,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17705,7 +17705,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -18173,7 +18173,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18875,7 +18875,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18953,7 +18953,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -19109,7 +19109,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -19265,7 +19265,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -19343,7 +19343,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19836,7 +19836,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19917,7 +19917,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19998,7 +19998,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -20241,7 +20241,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -20403,7 +20403,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -20484,7 +20484,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -20565,7 +20565,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -21051,7 +21051,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -21132,7 +21132,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -21213,7 +21213,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -21294,7 +21294,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -21456,7 +21456,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -21618,7 +21618,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21699,7 +21699,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21942,7 +21942,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22457,7 +22457,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22700,7 +22700,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22781,7 +22781,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22862,7 +22862,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22943,7 +22943,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -23024,7 +23024,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -23105,7 +23105,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -23186,7 +23186,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23267,7 +23267,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23348,7 +23348,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23429,7 +23429,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23510,7 +23510,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23591,7 +23591,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23834,7 +23834,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23915,7 +23915,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -24077,7 +24077,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -24158,7 +24158,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24480,7 +24480,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24559,7 +24559,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -25014,7 +25014,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25212,7 +25212,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25806,7 +25806,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25905,7 +25905,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -26004,7 +26004,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26202,7 +26202,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -26301,7 +26301,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26400,7 +26400,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26594,7 +26594,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26693,7 +26693,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26891,7 +26891,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26986,7 +26986,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -27184,7 +27184,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -27283,7 +27283,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27382,7 +27382,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27481,7 +27481,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27576,7 +27576,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27671,7 +27671,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -28215,7 +28215,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-287</t>
+          <t>23-288</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28332,7 +28332,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-036</t>
+          <t>24-037</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28449,7 +28449,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-124</t>
+          <t>31-125</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28566,7 +28566,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25-297</t>
+          <t>25-298</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25-042</t>
+          <t>25-043</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28800,7 +28800,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>32-062</t>
+          <t>32-063</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23-247</t>
+          <t>23-248</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -29034,7 +29034,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-064</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -29151,7 +29151,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-063</t>
+          <t>33-064</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -29268,7 +29268,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26-131</t>
+          <t>26-132</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31-200</t>
+          <t>31-201</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -29502,7 +29502,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-266</t>
+          <t>26-267</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29619,7 +29619,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34-318</t>
+          <t>34-319</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -29736,7 +29736,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28-111</t>
+          <t>28-112</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -29853,7 +29853,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-360</t>
+          <t>31-361</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -29970,7 +29970,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27-276</t>
+          <t>27-277</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -30087,7 +30087,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -30204,7 +30204,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>32-313</t>
+          <t>32-314</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -30321,7 +30321,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>29-053</t>
+          <t>29-054</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-322</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -30555,7 +30555,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>28-271</t>
+          <t>28-272</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -30672,7 +30672,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>23-154</t>
+          <t>23-155</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -30789,7 +30789,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-001</t>
+          <t>21-002</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30906,7 +30906,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18-262</t>
+          <t>18-263</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -31023,7 +31023,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29-150</t>
+          <t>29-151</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -31140,7 +31140,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>22-125</t>
+          <t>22-126</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -31257,7 +31257,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25-043</t>
+          <t>25-044</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -31374,7 +31374,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -31491,7 +31491,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>31-250</t>
+          <t>31-251</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -31554,7 +31554,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>21-160</t>
+          <t>21-161</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -31617,7 +31617,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-328</t>
+          <t>22-329</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31680,7 +31680,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-306</t>
+          <t>18-307</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -31794,7 +31794,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-001</t>
+          <t>19-002</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -31857,7 +31857,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16-312</t>
+          <t>16-313</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>23-212</t>
+          <t>23-213</t>
         </is>
       </c>
       <c r="F39" t="n">

--- a/Teams/Wolves_stats.xlsx
+++ b/Teams/Wolves_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6075,12 +6075,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>31-254</t>
+          <t>31-257</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-332</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-310</t>
+          <t>18-313</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-005</t>
+          <t>19-008</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16-316</t>
+          <t>16-319</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-219</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -9908,10 +9908,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10311,7 +10311,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11839,7 +11839,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12639,7 +12639,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13007,7 +13007,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13927,7 +13927,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14663,7 +14663,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15564,7 +15564,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15632,7 +15632,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15768,7 +15768,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15972,7 +15972,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16040,7 +16040,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16244,7 +16244,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16584,7 +16584,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16652,7 +16652,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16924,7 +16924,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16992,7 +16992,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17196,7 +17196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17772,7 +17772,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -18127,7 +18127,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -18269,7 +18269,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18553,7 +18553,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18624,7 +18624,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18766,7 +18766,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18979,7 +18979,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -20058,7 +20058,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20129,7 +20129,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20342,7 +20342,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20484,7 +20484,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20768,7 +20768,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20910,7 +20910,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20981,7 +20981,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -21123,7 +21123,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21194,7 +21194,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21265,7 +21265,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21407,7 +21407,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21478,7 +21478,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21549,7 +21549,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21620,7 +21620,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21689,7 +21689,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21758,7 +21758,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -22164,7 +22164,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22342,7 +22342,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22431,7 +22431,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22609,7 +22609,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22787,7 +22787,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23054,7 +23054,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23143,7 +23143,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23232,7 +23232,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23321,7 +23321,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23495,7 +23495,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23584,7 +23584,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23673,7 +23673,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23762,7 +23762,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24381,7 +24381,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24466,7 +24466,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24551,7 +24551,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -24821,12 +24821,12 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="inlineStr">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-291</t>
+          <t>23-294</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25157,7 +25157,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-040</t>
+          <t>24-043</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25264,7 +25264,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-128</t>
+          <t>31-131</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25371,7 +25371,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-301</t>
+          <t>25-304</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25478,7 +25478,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-046</t>
+          <t>25-049</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25585,7 +25585,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32-066</t>
+          <t>32-069</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23-251</t>
+          <t>23-254</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26-067</t>
+          <t>26-070</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25906,7 +25906,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-067</t>
+          <t>33-070</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -26013,7 +26013,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26-135</t>
+          <t>26-138</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31-204</t>
+          <t>31-207</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-270</t>
+          <t>26-273</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -26334,7 +26334,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34-322</t>
+          <t>34-325</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28-115</t>
+          <t>28-118</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26548,7 +26548,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-364</t>
+          <t>32-002</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>27-280</t>
+          <t>27-283</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26762,7 +26762,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>21-263</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26869,7 +26869,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>32-317</t>
+          <t>32-320</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26976,7 +26976,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29-057</t>
+          <t>29-060</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-326</t>
+          <t>23-329</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -27190,7 +27190,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28-275</t>
+          <t>28-278</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-161</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -27404,7 +27404,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-005</t>
+          <t>21-008</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -27511,7 +27511,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18-266</t>
+          <t>18-269</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -27618,7 +27618,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29-154</t>
+          <t>29-157</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22-129</t>
+          <t>22-132</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27832,7 +27832,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>25-047</t>
+          <t>25-050</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27939,7 +27939,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -28046,7 +28046,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>31-254</t>
+          <t>31-257</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -28099,7 +28099,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21-164</t>
+          <t>21-167</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -28152,7 +28152,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-332</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -28205,7 +28205,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-310</t>
+          <t>18-313</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -28303,7 +28303,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-005</t>
+          <t>19-008</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -28356,7 +28356,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16-316</t>
+          <t>16-319</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -28409,7 +28409,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>23-216</t>
+          <t>23-219</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -28654,10 +28654,10 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="X1:AG1"/>
     <mergeCell ref="I1:P1"/>
   </mergeCells>
